--- a/prep/HAB/hab_watershed_partnerships_area.xlsx
+++ b/prep/HAB/hab_watershed_partnerships_area.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eschemmel/Documents/github/mhi/prep/HAB/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="2040" windowWidth="18435" windowHeight="8040"/>
+    <workbookView xWindow="7360" yWindow="2860" windowWidth="18440" windowHeight="8040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -63,8 +68,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,13 +106,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -104,6 +126,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -152,7 +177,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -185,9 +210,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -220,6 +262,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -395,20 +454,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:N5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="12" max="12" width="9.5703125" customWidth="1"/>
+    <col min="12" max="12" width="9.5" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17" customWidth="1"/>
+    <col min="16" max="16" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -452,7 +513,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -497,8 +558,10 @@
         <f>M2/1000000</f>
         <v>5900.1840747450369</v>
       </c>
+      <c r="O2" s="2"/>
+      <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -540,11 +603,11 @@
         <v>995820933.62872791</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N5" si="1">M3/1000000</f>
+        <f>M3/1000000</f>
         <v>995.82093362872786</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -586,11 +649,11 @@
         <v>602328776.63194597</v>
       </c>
       <c r="N4">
-        <f t="shared" si="1"/>
+        <f>M4/1000000</f>
         <v>602.32877663194597</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -632,7 +695,7 @@
         <v>584742534.97845805</v>
       </c>
       <c r="N5">
-        <f t="shared" si="1"/>
+        <f>M5/1000000</f>
         <v>584.74253497845802</v>
       </c>
     </row>
@@ -642,24 +705,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
